--- a/dataset/aria_inference_set.xlsx
+++ b/dataset/aria_inference_set.xlsx
@@ -1,37 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-1272" yWindow="1896" windowWidth="22716" windowHeight="8676"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>v3</t>
+  </si>
+  <si>
+    <t>v4</t>
+  </si>
+  <si>
+    <t>v5</t>
+  </si>
+  <si>
+    <t>v6</t>
+  </si>
+  <si>
+    <t>v7</t>
+  </si>
+  <si>
+    <t>v8</t>
+  </si>
+  <si>
+    <t>sample_type</t>
+  </si>
+  <si>
+    <t>lab 1</t>
+  </si>
+  <si>
+    <t>lab 2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +84,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,250 +405,332 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>v1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>v2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>v3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>v4</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>v5</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>v6</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>v7</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>v8</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>sample_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>555.79504422636</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>555.79504422636001</v>
+      </c>
+      <c r="B2">
         <v>204.5624833843406</v>
       </c>
-      <c r="C2" t="n">
-        <v>632.2194609598166</v>
-      </c>
-      <c r="D2" t="n">
-        <v>541.9893362234417</v>
-      </c>
-      <c r="E2" t="n">
-        <v>594.3413831691653</v>
-      </c>
-      <c r="F2" t="n">
-        <v>352.0769528650072</v>
-      </c>
-      <c r="G2" t="n">
-        <v>824.7978796903205</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="C2">
+        <v>632.21946095981662</v>
+      </c>
+      <c r="D2">
+        <v>541.98933622344168</v>
+      </c>
+      <c r="E2">
+        <v>594.34138316916528</v>
+      </c>
+      <c r="F2">
+        <v>352.07695286500717</v>
+      </c>
+      <c r="G2">
+        <v>824.79787969032054</v>
+      </c>
+      <c r="H2">
         <v>4841.922378465104</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>lab 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>468.9354223670493</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>468.93542236704928</v>
+      </c>
+      <c r="B3">
         <v>350.6963902220287</v>
       </c>
-      <c r="C3" t="n">
-        <v>717.0732222749832</v>
-      </c>
-      <c r="D3" t="n">
-        <v>558.7372329385323</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="C3">
+        <v>717.07322227498321</v>
+      </c>
+      <c r="D3">
+        <v>558.73723293853232</v>
+      </c>
+      <c r="E3">
         <v>389.5710706130892</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>229.2847877412913</v>
       </c>
-      <c r="G3" t="n">
-        <v>657.9937384369096</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4425.822346902525</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>lab 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>401.5760147843648</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="G3">
+        <v>657.99373843690955</v>
+      </c>
+      <c r="H3">
+        <v>4425.8223469025252</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>401.57601478436482</v>
+      </c>
+      <c r="B4">
         <v>260.9944941454072</v>
       </c>
-      <c r="C4" t="n">
-        <v>398.2342305275592</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>398.23423052755919</v>
+      </c>
+      <c r="D4">
         <v>519.8608049262923</v>
       </c>
-      <c r="E4" t="n">
-        <v>633.3017858138023</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E4">
+        <v>633.30178581380233</v>
+      </c>
+      <c r="F4">
         <v>195.0621518068844</v>
       </c>
-      <c r="G4" t="n">
-        <v>846.7201292251647</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4717.856130321836</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>lab 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>534.2930848883771</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="G4">
+        <v>846.72012922516467</v>
+      </c>
+      <c r="H4">
+        <v>4717.8561303218357</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>534.29308488837705</v>
+      </c>
+      <c r="B5">
         <v>337.9362350621725</v>
       </c>
-      <c r="C5" t="n">
-        <v>352.5325786547125</v>
-      </c>
-      <c r="D5" t="n">
-        <v>343.1352788218197</v>
-      </c>
-      <c r="E5" t="n">
-        <v>570.6526120467929</v>
-      </c>
-      <c r="F5" t="n">
-        <v>360.5429349924241</v>
-      </c>
-      <c r="G5" t="n">
-        <v>732.063313101409</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4574.904009295987</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>lab 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>470.7267634566468</v>
-      </c>
-      <c r="B6" t="n">
-        <v>336.5383337448333</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="C5">
+        <v>352.53257865471249</v>
+      </c>
+      <c r="D5">
+        <v>343.13527882181972</v>
+      </c>
+      <c r="E5">
+        <v>570.65261204679291</v>
+      </c>
+      <c r="F5">
+        <v>360.54293499242408</v>
+      </c>
+      <c r="G5">
+        <v>732.06331310140899</v>
+      </c>
+      <c r="H5">
+        <v>4574.9040092959867</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>470.72676345664678</v>
+      </c>
+      <c r="B6">
+        <v>336.53833374483332</v>
+      </c>
+      <c r="C6">
         <v>461.1825455340043</v>
       </c>
-      <c r="D6" t="n">
-        <v>559.2355986854774</v>
-      </c>
-      <c r="E6" t="n">
-        <v>441.260496085705</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="D6">
+        <v>559.23559868547738</v>
+      </c>
+      <c r="E6">
+        <v>441.26049608570497</v>
+      </c>
+      <c r="F6">
         <v>240.3469372210732</v>
       </c>
-      <c r="G6" t="n">
-        <v>645.708945513556</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4403.755687089219</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>lab 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>405.2957669620349</v>
-      </c>
-      <c r="B7" t="n">
-        <v>312.9634724814389</v>
-      </c>
-      <c r="C7" t="n">
-        <v>691.1381429675489</v>
-      </c>
-      <c r="D7" t="n">
-        <v>380.4538463109777</v>
-      </c>
-      <c r="E7" t="n">
-        <v>692.1173971753241</v>
-      </c>
-      <c r="F7" t="n">
-        <v>382.0753174306748</v>
-      </c>
-      <c r="G7" t="n">
-        <v>823.1611682509601</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G6">
+        <v>645.70894551355605</v>
+      </c>
+      <c r="H6">
+        <v>4403.7556870892186</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>405.29576696203497</v>
+      </c>
+      <c r="B7">
+        <v>312.963472481439</v>
+      </c>
+      <c r="C7">
+        <v>691.13814296754902</v>
+      </c>
+      <c r="D7">
+        <v>380.45384631097772</v>
+      </c>
+      <c r="E7">
+        <v>692.11739717532407</v>
+      </c>
+      <c r="F7">
+        <v>382.07531743067477</v>
+      </c>
+      <c r="G7">
+        <v>823.16116825096015</v>
+      </c>
+      <c r="H7">
         <v>4573.825093986733</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>lab 2</t>
-        </is>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>261.86666666666599</v>
+      </c>
+      <c r="B8">
+        <v>209.4</v>
+      </c>
+      <c r="C8">
+        <v>394.933333333333</v>
+      </c>
+      <c r="D8">
+        <v>364.73333333333301</v>
+      </c>
+      <c r="E8">
+        <v>421.4</v>
+      </c>
+      <c r="F8">
+        <v>225.46666666666599</v>
+      </c>
+      <c r="G8">
+        <v>801.5625</v>
+      </c>
+      <c r="H8">
+        <v>4704.5333333333301</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>640.35714285714198</v>
+      </c>
+      <c r="B9">
+        <v>396.71428571428498</v>
+      </c>
+      <c r="C9">
+        <v>682.85714285714198</v>
+      </c>
+      <c r="D9">
+        <v>530.642857142857</v>
+      </c>
+      <c r="E9">
+        <v>691.35714285714198</v>
+      </c>
+      <c r="F9">
+        <v>237.68421052631501</v>
+      </c>
+      <c r="G9">
+        <v>632.625</v>
+      </c>
+      <c r="H9">
+        <v>3790.9285714285702</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>260.6875</v>
+      </c>
+      <c r="B10">
+        <v>178.8</v>
+      </c>
+      <c r="C10">
+        <v>380.125</v>
+      </c>
+      <c r="D10">
+        <v>355.75</v>
+      </c>
+      <c r="E10">
+        <v>532.26666666666597</v>
+      </c>
+      <c r="F10">
+        <v>203.666666666666</v>
+      </c>
+      <c r="G10">
+        <v>665.75</v>
+      </c>
+      <c r="H10">
+        <v>3903.3333333333298</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>676.06666666666604</v>
+      </c>
+      <c r="B11">
+        <v>414.2</v>
+      </c>
+      <c r="C11">
+        <v>722.3125</v>
+      </c>
+      <c r="D11">
+        <v>489</v>
+      </c>
+      <c r="E11">
+        <v>704</v>
+      </c>
+      <c r="F11">
+        <v>271.39999999999998</v>
+      </c>
+      <c r="G11">
+        <v>658.06666666666604</v>
+      </c>
+      <c r="H11">
+        <v>4701.4666666666599</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
